--- a/ANALYSIS SCRIPTS/channelsremoved.xlsx
+++ b/ANALYSIS SCRIPTS/channelsremoved.xlsx
@@ -13,12 +13,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>fullpilot1</t>
   </si>
   <si>
     <t>fullpilot1</t>
+  </si>
+  <si>
+    <t>fullpilot2</t>
+  </si>
+  <si>
+    <t>fullpilot2</t>
+  </si>
+  <si>
+    <t>fullpilot3</t>
   </si>
 </sst>
 </file>
@@ -39,7 +48,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -51,16 +60,28 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -70,7 +91,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.37890625" customWidth="true"/>
@@ -85,6 +106,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/ANALYSIS SCRIPTS/channelsremoved.xlsx
+++ b/ANALYSIS SCRIPTS/channelsremoved.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>fullpilot1</t>
   </si>
@@ -28,6 +28,36 @@
   </si>
   <si>
     <t>fullpilot3</t>
+  </si>
+  <si>
+    <t>eeg_pilot_1</t>
+  </si>
+  <si>
+    <t>eeg_pilot_1</t>
+  </si>
+  <si>
+    <t>eeg_pilot_1</t>
+  </si>
+  <si>
+    <t>eeg_pilot_2</t>
+  </si>
+  <si>
+    <t>eeg_pilot_3</t>
+  </si>
+  <si>
+    <t>eeg_pilot_4</t>
+  </si>
+  <si>
+    <t>eeg_pilot_5</t>
+  </si>
+  <si>
+    <t>eeg_pilot_6</t>
+  </si>
+  <si>
+    <t>eeg_pilot_7</t>
+  </si>
+  <si>
+    <t>eeg_pilot_8</t>
   </si>
 </sst>
 </file>
@@ -48,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -66,11 +96,31 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -82,6 +132,26 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,7 +164,7 @@
   <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true"/>
+    <col min="1" max="1" width="10.7109375" customWidth="true"/>
     <col min="2" max="2" width="2.15625" customWidth="true"/>
   </cols>
   <sheetData>
@@ -108,10 +178,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ANALYSIS SCRIPTS/channelsremoved.xlsx
+++ b/ANALYSIS SCRIPTS/channelsremoved.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>fullpilot1</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>eeg_pilot_8</t>
+  </si>
+  <si>
+    <t>button_press_pilot_1</t>
+  </si>
+  <si>
+    <t>button_press_pilot_2</t>
   </si>
 </sst>
 </file>
@@ -78,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -116,11 +122,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -152,6 +162,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,7 +178,7 @@
   <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="true"/>
+    <col min="1" max="1" width="18.48828125" customWidth="true"/>
     <col min="2" max="2" width="2.15625" customWidth="true"/>
   </cols>
   <sheetData>
@@ -178,10 +192,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ANALYSIS SCRIPTS/channelsremoved.xlsx
+++ b/ANALYSIS SCRIPTS/channelsremoved.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>fullpilot1</t>
   </si>
@@ -64,6 +64,30 @@
   </si>
   <si>
     <t>button_press_pilot_2</t>
+  </si>
+  <si>
+    <t>mild_master_1</t>
+  </si>
+  <si>
+    <t>mild_master_2</t>
+  </si>
+  <si>
+    <t>mild_master_3</t>
+  </si>
+  <si>
+    <t>mild_master_4</t>
+  </si>
+  <si>
+    <t>mild_master_5</t>
+  </si>
+  <si>
+    <t>mild_master_4</t>
+  </si>
+  <si>
+    <t>mild_master_3</t>
+  </si>
+  <si>
+    <t>mild_master_1</t>
   </si>
 </sst>
 </file>
@@ -84,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -126,11 +150,27 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -166,6 +206,22 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -175,27 +231,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.48828125" customWidth="true"/>
+    <col min="1" max="1" width="13.26953125" customWidth="true"/>
     <col min="2" max="2" width="2.15625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ANALYSIS SCRIPTS/channelsremoved.xlsx
+++ b/ANALYSIS SCRIPTS/channelsremoved.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="68" uniqueCount="66">
   <si>
     <t>fullpilot1</t>
   </si>
@@ -88,12 +88,135 @@
   </si>
   <si>
     <t>mild_master_1</t>
+  </si>
+  <si>
+    <t>mild_master_6</t>
+  </si>
+  <si>
+    <t>mild_master_8</t>
+  </si>
+  <si>
+    <t>mild_master_9</t>
+  </si>
+  <si>
+    <t>mild_master_10</t>
+  </si>
+  <si>
+    <t>mild_master_11</t>
+  </si>
+  <si>
+    <t>mild_master_12</t>
+  </si>
+  <si>
+    <t>mild_master_14</t>
+  </si>
+  <si>
+    <t>mild_master_15</t>
+  </si>
+  <si>
+    <t>mild_master_16</t>
+  </si>
+  <si>
+    <t>mild_master_17</t>
+  </si>
+  <si>
+    <t>mild_master_18</t>
+  </si>
+  <si>
+    <t>mild_master_19</t>
+  </si>
+  <si>
+    <t>mild_master_20</t>
+  </si>
+  <si>
+    <t>mild_master_1</t>
+  </si>
+  <si>
+    <t>mild_master_3</t>
+  </si>
+  <si>
+    <t>mild_master_4</t>
+  </si>
+  <si>
+    <t>mild_master_5</t>
+  </si>
+  <si>
+    <t>mild_master_6</t>
+  </si>
+  <si>
+    <t>mild_master_8</t>
+  </si>
+  <si>
+    <t>mild_master_9</t>
+  </si>
+  <si>
+    <t>mild_master_10</t>
+  </si>
+  <si>
+    <t>mild_master_11</t>
+  </si>
+  <si>
+    <t>mild_master_12</t>
+  </si>
+  <si>
+    <t>mild_master_14</t>
+  </si>
+  <si>
+    <t>mild_master_15</t>
+  </si>
+  <si>
+    <t>mild_master_16</t>
+  </si>
+  <si>
+    <t>mild_master_17</t>
+  </si>
+  <si>
+    <t>mild_master_18</t>
+  </si>
+  <si>
+    <t>mild_master_19</t>
+  </si>
+  <si>
+    <t>mild_master_20</t>
+  </si>
+  <si>
+    <t>mild_master_22</t>
+  </si>
+  <si>
+    <t>mild_master_23</t>
+  </si>
+  <si>
+    <t>mild_master_24</t>
+  </si>
+  <si>
+    <t>mild_master_25</t>
+  </si>
+  <si>
+    <t>mild_master_26</t>
+  </si>
+  <si>
+    <t>mild_master_27</t>
+  </si>
+  <si>
+    <t>mild_master_28</t>
+  </si>
+  <si>
+    <t>mild_master_29</t>
+  </si>
+  <si>
+    <t>mild_master_30</t>
+  </si>
+  <si>
+    <t>mild_master_31</t>
+  </si>
+  <si>
+    <t>mild_master_32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -108,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -166,11 +289,75 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -222,6 +409,70 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -230,17 +481,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="true"/>
-    <col min="2" max="2" width="2.15625" customWidth="true"/>
+    <col min="1" max="1" width="15.28515625" customWidth="true"/>
+    <col min="2" max="2" width="2.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B1" s="0">
         <v>3</v>
@@ -256,7 +510,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0">
         <v>1</v>
@@ -264,7 +518,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
@@ -272,10 +526,202 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ANALYSIS SCRIPTS/channelsremoved.xlsx
+++ b/ANALYSIS SCRIPTS/channelsremoved.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>fullpilot1</t>
   </si>
@@ -211,12 +211,33 @@
   </si>
   <si>
     <t>mild_master_32</t>
+  </si>
+  <si>
+    <t>mild_master_33</t>
+  </si>
+  <si>
+    <t>mild_master_34</t>
+  </si>
+  <si>
+    <t>mild_master_36</t>
+  </si>
+  <si>
+    <t>mild_master_37</t>
+  </si>
+  <si>
+    <t>mild_master_38</t>
+  </si>
+  <si>
+    <t>mild_master_39</t>
+  </si>
+  <si>
+    <t>mild_master_40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -231,7 +252,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="115">
+  <borders count="129">
     <border>
       <left/>
       <right/>
@@ -353,11 +374,25 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -473,6 +508,20 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,14 +531,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="true"/>
-    <col min="2" max="2" width="2.140625" customWidth="true"/>
+    <col min="1" max="1" width="14.26953125" customWidth="true"/>
+    <col min="2" max="2" width="2.15625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -724,6 +773,62 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="0">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/ANALYSIS SCRIPTS/channelsremoved.xlsx
+++ b/ANALYSIS SCRIPTS/channelsremoved.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>fullpilot1</t>
   </si>
@@ -214,6 +214,24 @@
   </si>
   <si>
     <t>mild_master_33</t>
+  </si>
+  <si>
+    <t>mild_master_34</t>
+  </si>
+  <si>
+    <t>mild_master_36</t>
+  </si>
+  <si>
+    <t>mild_master_37</t>
+  </si>
+  <si>
+    <t>mild_master_38</t>
+  </si>
+  <si>
+    <t>mild_master_39</t>
+  </si>
+  <si>
+    <t>mild_master_40</t>
   </si>
   <si>
     <t>mild_master_34</t>
@@ -252,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="129">
+  <borders count="141">
     <border>
       <left/>
       <right/>
@@ -388,11 +406,23 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -522,6 +552,18 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,7 +825,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B34" s="0">
         <v>2</v>
@@ -791,7 +833,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B36" s="0">
         <v>1</v>
@@ -799,7 +841,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B37" s="0">
         <v>1</v>
@@ -807,7 +849,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B38" s="0">
         <v>0</v>
@@ -815,7 +857,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B39" s="0">
         <v>1</v>
@@ -823,7 +865,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B40" s="0">
         <v>4</v>

--- a/ANALYSIS SCRIPTS/channelsremoved.xlsx
+++ b/ANALYSIS SCRIPTS/channelsremoved.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
   <si>
     <t>fullpilot1</t>
   </si>
@@ -250,6 +250,36 @@
   </si>
   <si>
     <t>mild_master_40</t>
+  </si>
+  <si>
+    <t>mild_master_41</t>
+  </si>
+  <si>
+    <t>mild_master_42</t>
+  </si>
+  <si>
+    <t>mild_master_43</t>
+  </si>
+  <si>
+    <t>mild_master_44</t>
+  </si>
+  <si>
+    <t>mild_master_45</t>
+  </si>
+  <si>
+    <t>mild_master_46</t>
+  </si>
+  <si>
+    <t>mild_master_20</t>
+  </si>
+  <si>
+    <t>mild_master_48</t>
+  </si>
+  <si>
+    <t>mild_master_45</t>
+  </si>
+  <si>
+    <t>mild_master_45</t>
   </si>
 </sst>
 </file>
@@ -270,7 +300,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="141">
+  <borders count="161">
     <border>
       <left/>
       <right/>
@@ -418,11 +448,31 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -564,6 +614,26 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,7 +643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -721,7 +791,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="B20" s="0">
         <v>2</v>
@@ -871,6 +941,62 @@
         <v>4</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="0">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>